--- a/src/image/test.xlsx
+++ b/src/image/test.xlsx
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
-    <t>Nguyễn Minh Hòa</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -37,13 +34,16 @@
     <t>nva@mail.com</t>
   </si>
   <si>
-    <t>Ngô Thanh Tâm</t>
-  </si>
-  <si>
     <t>20/10/2018</t>
   </si>
   <si>
     <t>02/09/1880</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Minh</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Hải</t>
   </si>
 </sst>
 </file>
@@ -88,11 +88,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -377,7 +378,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -385,29 +386,30 @@
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="4">
+        <v>974685493</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="F1">
-        <v>974685493</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -424,7 +426,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -432,29 +434,30 @@
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1">
+      <c r="F1" s="4">
         <v>964786367</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/image/test.xlsx
+++ b/src/image/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bộ môn Tin" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>None</t>
   </si>
@@ -44,13 +44,34 @@
   </si>
   <si>
     <t>Nguyễn Quang Hải</t>
+  </si>
+  <si>
+    <t>Họ tên</t>
+  </si>
+  <si>
+    <t>Học hàm</t>
+  </si>
+  <si>
+    <t>Học vị</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>SĐT</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +85,15 @@
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -88,12 +118,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -375,55 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4">
-        <v>974685493</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -437,32 +421,126 @@
     <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4">
-        <v>964786367</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
+      <c r="F2" s="4">
+        <v>974685493</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G1" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>964786367</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
